--- a/Nosecone/BoM.xlsx
+++ b/Nosecone/BoM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nose Board" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="219">
   <si>
     <t>Ref</t>
   </si>
@@ -519,9 +519,6 @@
     <t>IC MCU 8BIT 128KB FLASH 44TQFP</t>
   </si>
   <si>
-    <t>Breakaway pin headers 0.1" pitch</t>
-  </si>
-  <si>
     <t>Xbee headers</t>
   </si>
   <si>
@@ -589,12 +586,102 @@
   </si>
   <si>
     <t>IC TXRX RS485/422 3.3V LP 8SOIC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PREC040SAAN-RC/S1012EC-40-ND/2774814</t>
+  </si>
+  <si>
+    <t>Breakaway pin headers male 0.1" pitch</t>
+  </si>
+  <si>
+    <t>CONN HEADER .100" SNGL STR 40POS</t>
+  </si>
+  <si>
+    <t>S1012EC-40-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex-llc/0733910060/WM5543-ND/1465165</t>
+  </si>
+  <si>
+    <t>WM5543-ND</t>
+  </si>
+  <si>
+    <t>CONN SMA RCPT STR 50 OHM PCB</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/B08B-PUDSS-1-LF-SN/455-2499-ND/1989488</t>
+  </si>
+  <si>
+    <t>455-2499-ND</t>
+  </si>
+  <si>
+    <t>CONN HDR TOP 8 POS W/BOSS 2MM</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/PUDP-08V-S/455-2468-ND/1989457</t>
+  </si>
+  <si>
+    <t>455-2468-ND</t>
+  </si>
+  <si>
+    <t>CONN RECEPT HOUSING 8 POS 2MM</t>
+  </si>
+  <si>
+    <t>455-2518-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/SPUD-001T-P0.5/455-2518-1-ND/1989509</t>
+  </si>
+  <si>
+    <t>Female connector</t>
+  </si>
+  <si>
+    <t>Metal inserts</t>
+  </si>
+  <si>
+    <t>CONTACT RECPT 26-22AWG TIN PUD</t>
+  </si>
+  <si>
+    <t>Inserts</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/SPH-002T-P0.5L/455-2148-1-ND/1634657</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/PHR-2/455-1165-ND/608607</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/B2B-PH-K-S-LF-SN/455-1704-ND/926611</t>
+  </si>
+  <si>
+    <t>455-1704-ND</t>
+  </si>
+  <si>
+    <t>CONN HEADER PH TOP 2POS 2MM</t>
+  </si>
+  <si>
+    <t>CONN HOUSING PH 2POS 2MM WHITE</t>
+  </si>
+  <si>
+    <t>CONN TERMINAL 28-24AWG TIN</t>
+  </si>
+  <si>
+    <t>455-1165-ND</t>
+  </si>
+  <si>
+    <t>455-2148-1-ND</t>
+  </si>
+  <si>
+    <t>Breakaway male headers (below)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1461,12 +1548,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,305 +1882,317 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>204</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>205</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>204</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>207</v>
+      </c>
+      <c r="D22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" t="s">
-        <v>113</v>
+        <v>195</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>146</v>
+        <v>218</v>
+      </c>
+      <c r="F25" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>147</v>
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>156</v>
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30">
-        <v>220</v>
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="D30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" t="s">
-        <v>144</v>
+      <c r="D30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31">
-        <v>220</v>
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="D31" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" t="s">
-        <v>144</v>
+      <c r="D31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>220</v>
       </c>
       <c r="C34" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>150</v>
+      <c r="D34" t="s">
+        <v>145</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B35">
         <v>220</v>
@@ -2113,317 +2212,362 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36">
-        <v>220</v>
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
-      <c r="D36" t="s">
-        <v>145</v>
-      </c>
-      <c r="E36" t="s">
-        <v>144</v>
+      <c r="D36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>188</v>
+        <v>161</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" t="s">
-        <v>165</v>
+        <v>51</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>220</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>220</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" t="s">
-        <v>106</v>
+        <v>70</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" t="s">
-        <v>186</v>
-      </c>
-      <c r="F42" t="s">
-        <v>186</v>
+        <v>165</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E43" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
-        <v>182</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
+      </c>
+      <c r="F46" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D47" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" t="s">
-        <v>106</v>
+        <v>178</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
-      </c>
-      <c r="F49" t="s">
-        <v>106</v>
+        <v>131</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" t="s">
+        <v>181</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" t="s">
         <v>106</v>
       </c>
-      <c r="B52" t="s">
-        <v>108</v>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="E53" t="s">
         <v>106</v>
       </c>
-      <c r="B54" t="s">
-        <v>167</v>
+      <c r="F53" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,51 +2575,103 @@
         <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>109</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" t="s">
+        <v>192</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3" display="https://www.digikey.com/product-detail/en/kemet/C0603C104M5RACTU/399-7845-1-ND/3471568"/>
-    <hyperlink ref="F5" r:id="rId4" display="https://www.digikey.com/product-detail/en/kemet/C0603C104M5RACTU/399-7845-1-ND/3471568"/>
-    <hyperlink ref="F7" r:id="rId5" display="https://www.digikey.com/product-detail/en/kemet/C0603C104M5RACTU/399-7845-1-ND/3471568"/>
-    <hyperlink ref="F11" r:id="rId6" display="https://www.digikey.com/product-detail/en/kemet/C0603C104M5RACTU/399-7845-1-ND/3471568"/>
-    <hyperlink ref="F12" r:id="rId7" display="https://www.digikey.com/product-detail/en/kemet/C0603C104M5RACTU/399-7845-1-ND/3471568"/>
-    <hyperlink ref="F6" r:id="rId8"/>
-    <hyperlink ref="F8" r:id="rId9"/>
-    <hyperlink ref="F13" r:id="rId10"/>
-    <hyperlink ref="F9" r:id="rId11"/>
-    <hyperlink ref="F45" r:id="rId12"/>
-    <hyperlink ref="F10" r:id="rId13"/>
-    <hyperlink ref="F14" r:id="rId14"/>
-    <hyperlink ref="F15" r:id="rId15"/>
-    <hyperlink ref="F26" r:id="rId16"/>
-    <hyperlink ref="F30" r:id="rId17"/>
-    <hyperlink ref="F31" r:id="rId18"/>
-    <hyperlink ref="F35" r:id="rId19"/>
-    <hyperlink ref="F36" r:id="rId20"/>
-    <hyperlink ref="F29" r:id="rId21"/>
-    <hyperlink ref="F34" r:id="rId22"/>
-    <hyperlink ref="F23" r:id="rId23"/>
-    <hyperlink ref="F24" r:id="rId24"/>
-    <hyperlink ref="F28" r:id="rId25"/>
-    <hyperlink ref="F32" r:id="rId26"/>
-    <hyperlink ref="F33" r:id="rId27" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-071ML/311-1.00MHRCT-ND/729791"/>
-    <hyperlink ref="F38" r:id="rId28"/>
-    <hyperlink ref="F39" r:id="rId29"/>
-    <hyperlink ref="F40" r:id="rId30"/>
-    <hyperlink ref="F43" r:id="rId31"/>
-    <hyperlink ref="F44" r:id="rId32"/>
-    <hyperlink ref="F46" r:id="rId33"/>
-    <hyperlink ref="F47" r:id="rId34" display="https://www.digikey.com/product-detail/en/te-connectivity-measurement-specialties/MS580314BA01-00/223-1626-5-ND/5277631"/>
-    <hyperlink ref="F37" r:id="rId35"/>
-    <hyperlink ref="F51" r:id="rId36"/>
-    <hyperlink ref="F25" r:id="rId37"/>
-    <hyperlink ref="F27" r:id="rId38"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://www.digikey.com/product-detail/en/kemet/C0603C104M5RACTU/399-7845-1-ND/3471568" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://www.digikey.com/product-detail/en/kemet/C0603C104M5RACTU/399-7845-1-ND/3471568" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId5" display="https://www.digikey.com/product-detail/en/kemet/C0603C104M5RACTU/399-7845-1-ND/3471568" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F11" r:id="rId6" display="https://www.digikey.com/product-detail/en/kemet/C0603C104M5RACTU/399-7845-1-ND/3471568" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F12" r:id="rId7" display="https://www.digikey.com/product-detail/en/kemet/C0603C104M5RACTU/399-7845-1-ND/3471568" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F49" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F30" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F34" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F35" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F39" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F40" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F38" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F36" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F37" r:id="rId27" display="https://www.digikey.com/product-detail/en/yageo/RC0603FR-071ML/311-1.00MHRCT-ND/729791" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F42" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F43" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F44" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F47" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F48" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F50" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F51" r:id="rId34" display="https://www.digikey.com/product-detail/en/te-connectivity-measurement-specialties/MS580314BA01-00/223-1626-5-ND/5277631" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F41" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F55" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F29" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F31" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F57" r:id="rId39" xr:uid="{ED5161EF-A4D1-4798-8ACA-34A520686BFC}"/>
+    <hyperlink ref="F24" r:id="rId40" xr:uid="{F71A60EE-C2F0-454B-BCDA-9310CE01EC44}"/>
+    <hyperlink ref="F20" r:id="rId41" xr:uid="{59A798D2-9519-460C-B030-37B9E1460DA6}"/>
+    <hyperlink ref="F21" r:id="rId42" xr:uid="{948E8E08-3034-4CA9-8A62-0EDC0EF4A5F2}"/>
+    <hyperlink ref="F22" r:id="rId43" xr:uid="{A2199753-2672-4BB1-9395-11853FBF7E17}"/>
+    <hyperlink ref="F19" r:id="rId44" xr:uid="{C28C2EF0-5439-43DF-B647-9657A85C0C58}"/>
+    <hyperlink ref="F18" r:id="rId45" xr:uid="{6A887B26-E634-49CF-8CD3-90AD43607536}"/>
+    <hyperlink ref="F17" r:id="rId46" xr:uid="{81D7A603-C000-4368-8F82-DC341C39203F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>